--- a/ResultadoEleicoesDistritos/LISBOA_MAFRA.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_MAFRA.xlsx
@@ -597,64 +597,64 @@
         <v>20943</v>
       </c>
       <c r="H2" t="n">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="I2" t="n">
-        <v>1989</v>
+        <v>2083</v>
       </c>
       <c r="J2" t="n">
-        <v>8734</v>
+        <v>8571</v>
       </c>
       <c r="K2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" t="n">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="M2" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N2" t="n">
-        <v>1479</v>
+        <v>1526</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R2" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="S2" t="n">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="T2" t="n">
-        <v>1530</v>
+        <v>1577</v>
       </c>
       <c r="U2" t="n">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="V2" t="n">
-        <v>13530</v>
+        <v>13439</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>13337</v>
+        <v>13348</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="AA2" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
